--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.57272562743135</v>
+        <v>9.663483666666666</v>
       </c>
       <c r="H2">
-        <v>9.57272562743135</v>
+        <v>28.990451</v>
       </c>
       <c r="I2">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714015</v>
       </c>
       <c r="J2">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714016</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.75439625905661</v>
+        <v>505.8908573333333</v>
       </c>
       <c r="N2">
-        <v>67.75439625905661</v>
+        <v>1517.672572</v>
       </c>
       <c r="O2">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568338</v>
       </c>
       <c r="P2">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568337</v>
       </c>
       <c r="Q2">
-        <v>648.59424544021</v>
+        <v>4888.668036956663</v>
       </c>
       <c r="R2">
-        <v>648.59424544021</v>
+        <v>43998.01233260997</v>
       </c>
       <c r="S2">
-        <v>0.109226197128864</v>
+        <v>0.2928558331947461</v>
       </c>
       <c r="T2">
-        <v>0.109226197128864</v>
+        <v>0.2928558331947461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.57272562743135</v>
+        <v>9.663483666666666</v>
       </c>
       <c r="H3">
-        <v>9.57272562743135</v>
+        <v>28.990451</v>
       </c>
       <c r="I3">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714015</v>
       </c>
       <c r="J3">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714016</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.9811983921349</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N3">
-        <v>86.9811983921349</v>
+        <v>264.024102</v>
       </c>
       <c r="O3">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041998</v>
       </c>
       <c r="P3">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041997</v>
       </c>
       <c r="Q3">
-        <v>832.6471469530802</v>
+        <v>850.4641990944447</v>
       </c>
       <c r="R3">
-        <v>832.6471469530802</v>
+        <v>7654.177791850003</v>
       </c>
       <c r="S3">
-        <v>0.1402215361163996</v>
+        <v>0.0509470881936085</v>
       </c>
       <c r="T3">
-        <v>0.1402215361163996</v>
+        <v>0.0509470881936085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.57272562743135</v>
+        <v>9.663483666666666</v>
       </c>
       <c r="H4">
-        <v>9.57272562743135</v>
+        <v>28.990451</v>
       </c>
       <c r="I4">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714015</v>
       </c>
       <c r="J4">
-        <v>0.4473114617532861</v>
+        <v>0.4172798466714016</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>122.737381864632</v>
+        <v>126.926974</v>
       </c>
       <c r="N4">
-        <v>122.737381864632</v>
+        <v>380.780922</v>
       </c>
       <c r="O4">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389666</v>
       </c>
       <c r="P4">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389665</v>
       </c>
       <c r="Q4">
-        <v>1174.931280819391</v>
+        <v>1226.556740108425</v>
       </c>
       <c r="R4">
-        <v>1174.931280819391</v>
+        <v>11039.01066097582</v>
       </c>
       <c r="S4">
-        <v>0.1978637285080226</v>
+        <v>0.07347692528304693</v>
       </c>
       <c r="T4">
-        <v>0.1978637285080226</v>
+        <v>0.07347692528304692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.21286306852461</v>
+        <v>5.297564333333334</v>
       </c>
       <c r="H5">
-        <v>5.21286306852461</v>
+        <v>15.892693</v>
       </c>
       <c r="I5">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="J5">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.75439625905661</v>
+        <v>505.8908573333333</v>
       </c>
       <c r="N5">
-        <v>67.75439625905661</v>
+        <v>1517.672572</v>
       </c>
       <c r="O5">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568338</v>
       </c>
       <c r="P5">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568337</v>
       </c>
       <c r="Q5">
-        <v>353.1943899890181</v>
+        <v>2679.989362368488</v>
       </c>
       <c r="R5">
-        <v>353.1943899890181</v>
+        <v>24119.9042613164</v>
       </c>
       <c r="S5">
-        <v>0.05947952874538055</v>
+        <v>0.160544858381931</v>
       </c>
       <c r="T5">
-        <v>0.05947952874538055</v>
+        <v>0.160544858381931</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.21286306852461</v>
+        <v>5.297564333333334</v>
       </c>
       <c r="H6">
-        <v>5.21286306852461</v>
+        <v>15.892693</v>
       </c>
       <c r="I6">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="J6">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.9811983921349</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N6">
-        <v>86.9811983921349</v>
+        <v>264.024102</v>
       </c>
       <c r="O6">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041998</v>
       </c>
       <c r="P6">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041997</v>
       </c>
       <c r="Q6">
-        <v>453.4210767543722</v>
+        <v>466.2282219651874</v>
       </c>
       <c r="R6">
-        <v>453.4210767543722</v>
+        <v>4196.053997686687</v>
       </c>
       <c r="S6">
-        <v>0.07635815497922159</v>
+        <v>0.02792941827310464</v>
       </c>
       <c r="T6">
-        <v>0.07635815497922159</v>
+        <v>0.02792941827310463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.21286306852461</v>
+        <v>5.297564333333334</v>
       </c>
       <c r="H7">
-        <v>5.21286306852461</v>
+        <v>15.892693</v>
       </c>
       <c r="I7">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="J7">
-        <v>0.2435851072989698</v>
+        <v>0.2287546509102482</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>122.737381864632</v>
+        <v>126.926974</v>
       </c>
       <c r="N7">
-        <v>122.737381864632</v>
+        <v>380.780922</v>
       </c>
       <c r="O7">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389666</v>
       </c>
       <c r="P7">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389665</v>
       </c>
       <c r="Q7">
-        <v>639.8131650495424</v>
+        <v>672.4038104003274</v>
       </c>
       <c r="R7">
-        <v>639.8131650495424</v>
+        <v>6051.634293602947</v>
       </c>
       <c r="S7">
-        <v>0.1077474235743677</v>
+        <v>0.04028037425521263</v>
       </c>
       <c r="T7">
-        <v>0.1077474235743677</v>
+        <v>0.04028037425521262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.61499332783124</v>
+        <v>8.197232333333334</v>
       </c>
       <c r="H8">
-        <v>6.61499332783124</v>
+        <v>24.591697</v>
       </c>
       <c r="I8">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="J8">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.75439625905661</v>
+        <v>505.8908573333333</v>
       </c>
       <c r="N8">
-        <v>67.75439625905661</v>
+        <v>1517.672572</v>
       </c>
       <c r="O8">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568338</v>
       </c>
       <c r="P8">
-        <v>0.2441837656042616</v>
+        <v>0.7018211771568337</v>
       </c>
       <c r="Q8">
-        <v>448.1948791848934</v>
+        <v>4146.904892870521</v>
       </c>
       <c r="R8">
-        <v>448.1948791848934</v>
+        <v>37322.14403583468</v>
       </c>
       <c r="S8">
-        <v>0.07547803973001699</v>
+        <v>0.2484204855801567</v>
       </c>
       <c r="T8">
-        <v>0.07547803973001699</v>
+        <v>0.2484204855801566</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.61499332783124</v>
+        <v>8.197232333333334</v>
       </c>
       <c r="H9">
-        <v>6.61499332783124</v>
+        <v>24.591697</v>
       </c>
       <c r="I9">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="J9">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>86.9811983921349</v>
+        <v>88.00803400000001</v>
       </c>
       <c r="N9">
-        <v>86.9811983921349</v>
+        <v>264.024102</v>
       </c>
       <c r="O9">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041998</v>
       </c>
       <c r="P9">
-        <v>0.3134762868959047</v>
+        <v>0.1220933352041997</v>
       </c>
       <c r="Q9">
-        <v>575.3800470107377</v>
+        <v>721.4223018978995</v>
       </c>
       <c r="R9">
-        <v>575.3800470107377</v>
+        <v>6492.800717081094</v>
       </c>
       <c r="S9">
-        <v>0.09689659580028348</v>
+        <v>0.04321682873748662</v>
       </c>
       <c r="T9">
-        <v>0.09689659580028348</v>
+        <v>0.04321682873748661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.61499332783124</v>
+        <v>8.197232333333334</v>
       </c>
       <c r="H10">
-        <v>6.61499332783124</v>
+        <v>24.591697</v>
       </c>
       <c r="I10">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="J10">
-        <v>0.3091034309477441</v>
+        <v>0.3539655024183503</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>122.737381864632</v>
+        <v>126.926974</v>
       </c>
       <c r="N10">
-        <v>122.737381864632</v>
+        <v>380.780922</v>
       </c>
       <c r="O10">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389666</v>
       </c>
       <c r="P10">
-        <v>0.4423399474998339</v>
+        <v>0.1760854876389665</v>
       </c>
       <c r="Q10">
-        <v>811.9069621100157</v>
+        <v>1040.44989524496</v>
       </c>
       <c r="R10">
-        <v>811.9069621100157</v>
+        <v>9364.049057204635</v>
       </c>
       <c r="S10">
-        <v>0.1367287954174436</v>
+        <v>0.062328188100707</v>
       </c>
       <c r="T10">
-        <v>0.1367287954174436</v>
+        <v>0.06232818810070698</v>
       </c>
     </row>
   </sheetData>
